--- a/public/assets/FCL.xlsx
+++ b/public/assets/FCL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
   <si>
     <t>Mundo</t>
   </si>
@@ -37,10 +37,13 @@
     <t>CARRIER</t>
   </si>
   <si>
-    <t>T.T</t>
+    <t>Free time</t>
   </si>
   <si>
     <t>REMARKS</t>
+  </si>
+  <si>
+    <t>t.t</t>
   </si>
   <si>
     <t>COMPAÑÍA</t>
@@ -168,7 +171,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +183,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -216,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -224,16 +233,19 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -550,19 +562,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -608,9 +620,11 @@
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="K2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="1"/>
@@ -618,525 +632,527 @@
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>19</v>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>19</v>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>19</v>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>29</v>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>29</v>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>29</v>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>29</v>
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>29</v>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>32</v>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>36</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>32</v>
+      <c r="E15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>36</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>32</v>
+      <c r="E16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>36</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>32</v>
+      <c r="E17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>36</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>32</v>
+      <c r="E18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>36</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1144,26 +1160,26 @@
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1171,26 +1187,26 @@
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1198,31 +1214,31 @@
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1242,17 +1258,17 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1267,7 +1283,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1282,7 +1298,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1299,15 +1315,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1363,9 +1379,9 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>

--- a/public/assets/FCL.xlsx
+++ b/public/assets/FCL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="79">
   <si>
     <t>Mundo</t>
   </si>
@@ -91,7 +91,7 @@
     <t>Qingdao</t>
   </si>
   <si>
-    <t>San Antonio /Valparaiso</t>
+    <t>San Antonio / Valparaiso</t>
   </si>
   <si>
     <t>USD 1200</t>
@@ -118,7 +118,7 @@
     <t>YML</t>
   </si>
   <si>
-    <t>San Antonio</t>
+    <t>San antonio</t>
   </si>
   <si>
     <t>USD 1475</t>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>USD 1550</t>
-  </si>
-  <si>
-    <t>San Antonio / Valparaiso</t>
   </si>
   <si>
     <t>7d dry ;7d nor</t>
@@ -238,9 +235,6 @@
     <t>USD 1553</t>
   </si>
   <si>
-    <t>San antonio</t>
-  </si>
-  <si>
     <t>EMC SPOT</t>
   </si>
   <si>
@@ -292,8 +286,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0d0d0d"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -324,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -339,19 +333,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -666,19 +657,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1260,7 +1251,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>20</v>
@@ -1291,12 +1282,12 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1322,12 +1313,12 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1353,12 +1344,12 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1381,10 +1372,10 @@
       <c r="K23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>11</v>
@@ -1415,7 +1406,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>19</v>
@@ -1446,7 +1437,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -1477,7 +1468,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>19</v>
@@ -1508,7 +1499,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>20</v>
@@ -1539,7 +1530,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -1570,7 +1561,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>24</v>
@@ -1601,13 +1592,13 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>15</v>
@@ -1622,7 +1613,7 @@
         <v>41</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1632,13 +1623,13 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>15</v>
@@ -1653,7 +1644,7 @@
         <v>41</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1663,13 +1654,13 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>15</v>
@@ -1684,7 +1675,7 @@
         <v>41</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1694,13 +1685,13 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>23</v>
@@ -1715,7 +1706,7 @@
         <v>41</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1725,13 +1716,13 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>23</v>
@@ -1746,7 +1737,7 @@
         <v>41</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1756,13 +1747,13 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>23</v>
@@ -1777,7 +1768,7 @@
         <v>41</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -1787,7 +1778,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
         <v>11</v>
@@ -1808,7 +1799,7 @@
         <v>41</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1818,7 +1809,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>19</v>
@@ -1839,7 +1830,7 @@
         <v>41</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -1849,7 +1840,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
         <v>20</v>
@@ -1870,7 +1861,7 @@
         <v>41</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -1880,7 +1871,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>21</v>
@@ -1901,7 +1892,7 @@
         <v>41</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -1911,7 +1902,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
         <v>24</v>
@@ -1932,7 +1923,7 @@
         <v>41</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -1942,10 +1933,10 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>27</v>
@@ -1963,7 +1954,7 @@
         <v>41</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -1973,13 +1964,13 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>15</v>
@@ -1988,13 +1979,13 @@
         <v>22</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2004,13 +1995,13 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>15</v>
@@ -2019,13 +2010,13 @@
         <v>22</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -2035,13 +2026,13 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>15</v>
@@ -2050,13 +2041,13 @@
         <v>22</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -2066,13 +2057,13 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>23</v>
@@ -2081,13 +2072,13 @@
         <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -2097,13 +2088,13 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>23</v>
@@ -2112,13 +2103,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -2128,13 +2119,13 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>23</v>
@@ -2143,13 +2134,13 @@
         <v>43</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -2159,12 +2150,12 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -2177,10 +2168,10 @@
         <v>40</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -2190,12 +2181,12 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -2208,10 +2199,10 @@
         <v>40</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -2221,12 +2212,12 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -2239,10 +2230,10 @@
         <v>40</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -2252,12 +2243,12 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -2270,10 +2261,10 @@
         <v>40</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -2283,12 +2274,12 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2301,10 +2292,10 @@
         <v>40</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -2314,12 +2305,12 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -2332,10 +2323,10 @@
         <v>40</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -2345,7 +2336,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
         <v>21</v>
@@ -2363,10 +2354,10 @@
         <v>40</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -2376,7 +2367,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
         <v>24</v>
@@ -2394,10 +2385,10 @@
         <v>40</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -2407,7 +2398,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
         <v>11</v>
@@ -2425,10 +2416,10 @@
         <v>40</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -2438,7 +2429,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
         <v>19</v>
@@ -2456,10 +2447,10 @@
         <v>40</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -2469,10 +2460,10 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="1"/>
       <c r="B59" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -2487,10 +2478,10 @@
         <v>40</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -2500,7 +2491,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>20</v>
@@ -2518,10 +2509,10 @@
         <v>40</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -2531,7 +2522,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
         <v>21</v>
@@ -2549,10 +2540,10 @@
         <v>40</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -2562,7 +2553,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>24</v>
@@ -2580,10 +2571,10 @@
         <v>40</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -2593,7 +2584,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
         <v>11</v>
@@ -2611,10 +2602,10 @@
         <v>40</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -2624,7 +2615,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
         <v>19</v>
@@ -2642,10 +2633,10 @@
         <v>40</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -2655,10 +2646,10 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
@@ -2673,10 +2664,10 @@
         <v>40</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -2686,7 +2677,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
         <v>20</v>
@@ -2704,10 +2695,10 @@
         <v>40</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -2717,28 +2708,28 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -2748,28 +2739,28 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -2779,28 +2770,28 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -2810,7 +2801,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="1"/>
       <c r="B70" s="2" t="s">
         <v>11</v>
@@ -2819,19 +2810,19 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -2850,19 +2841,19 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -2881,19 +2872,19 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G72" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -2912,19 +2903,19 @@
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G73" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -2943,19 +2934,19 @@
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G74" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -2974,19 +2965,19 @@
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G75" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -3001,7 +2992,7 @@
       <c r="B76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -3014,15 +3005,15 @@
         <v>40</v>
       </c>
       <c r="G76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -3032,28 +3023,28 @@
       <c r="B77" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -3063,28 +3054,28 @@
       <c r="B78" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -3094,39 +3085,39 @@
       <c r="B79" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="15.75">
       <c r="A80" s="1"/>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>74</v>
+      <c r="C80" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>26</v>
@@ -3138,26 +3129,26 @@
         <v>15</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="15.75">
       <c r="A81" s="1"/>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>74</v>
+      <c r="C81" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>26</v>
@@ -3169,26 +3160,26 @@
         <v>15</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="15.75">
       <c r="A82" s="1"/>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>74</v>
+      <c r="C82" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>26</v>
@@ -3200,26 +3191,26 @@
         <v>15</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="15.75">
       <c r="A83" s="1"/>
-      <c r="B83" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>74</v>
+      <c r="B83" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>26</v>
@@ -3231,26 +3222,26 @@
         <v>15</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="15.75">
       <c r="A84" s="1"/>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>74</v>
+      <c r="C84" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>26</v>
@@ -3262,26 +3253,26 @@
         <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="15.75">
       <c r="A85" s="1"/>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>74</v>
+      <c r="C85" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>26</v>
@@ -3293,26 +3284,26 @@
         <v>15</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="15.75">
       <c r="A86" s="1"/>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>74</v>
+      <c r="C86" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>26</v>
@@ -3324,26 +3315,26 @@
         <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="15.75">
       <c r="A87" s="1"/>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>74</v>
+      <c r="C87" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>26</v>
@@ -3355,26 +3346,26 @@
         <v>15</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="15.75">
       <c r="A88" s="1"/>
-      <c r="B88" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>74</v>
+      <c r="B88" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>26</v>
@@ -3386,26 +3377,26 @@
         <v>15</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="15.75">
       <c r="A89" s="1"/>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>74</v>
+      <c r="C89" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>26</v>
@@ -3417,170 +3408,170 @@
         <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="15.75">
       <c r="A90" s="1"/>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>74</v>
+      <c r="C90" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="15.75">
       <c r="A91" s="1"/>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>74</v>
+      <c r="C91" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="15.75">
       <c r="A92" s="1"/>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>74</v>
+      <c r="C92" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="15.75">
       <c r="A93" s="1"/>
-      <c r="B93" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>74</v>
+      <c r="B93" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="15.75">
       <c r="A94" s="1"/>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>74</v>
+      <c r="C94" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -3677,8 +3668,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="15.75">
       <c r="A101" s="1"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="2"/>
@@ -3692,8 +3683,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="15.75">
       <c r="A102" s="1"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="2"/>
@@ -3707,8 +3698,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="15.75">
       <c r="A103" s="1"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="2"/>
@@ -3722,8 +3713,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="15.75">
       <c r="A104" s="1"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="2"/>
@@ -3737,8 +3728,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="15.75">
       <c r="A105" s="1"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="2"/>
@@ -3752,8 +3743,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="15.75">
       <c r="A106" s="1"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="2"/>
@@ -3767,8 +3758,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="15.75">
       <c r="A107" s="1"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="2"/>
@@ -3782,8 +3773,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="15.75">
       <c r="A108" s="1"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="2"/>
@@ -3797,8 +3788,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="15.75">
       <c r="A109" s="1"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="2"/>
@@ -3812,8 +3803,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="15.75">
       <c r="A110" s="1"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="2"/>
@@ -3827,8 +3818,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="15.75">
       <c r="A111" s="1"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="2"/>
@@ -3842,8 +3833,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="15.75">
       <c r="A112" s="1"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="2"/>
@@ -3857,8 +3848,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="15.75">
       <c r="A113" s="1"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="2"/>
@@ -3872,8 +3863,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="15.75">
       <c r="A114" s="1"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="2"/>
@@ -3887,8 +3878,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="15.75">
       <c r="A115" s="1"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="2"/>
